--- a/data/trans_orig/Q5415-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4709</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1770</v>
+        <v>1758</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10377</v>
+        <v>10241</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03650548334951723</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01372488179691736</v>
+        <v>0.01362675480751475</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08044536762862463</v>
+        <v>0.07939249389869646</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -765,19 +765,19 @@
         <v>21909</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14222</v>
+        <v>13843</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32034</v>
+        <v>32258</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08048357845821495</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05224514866294194</v>
+        <v>0.05085506212207563</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1176797738227057</v>
+        <v>0.1185038729548266</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -786,19 +786,19 @@
         <v>26617</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17646</v>
+        <v>18028</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37969</v>
+        <v>39007</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06634418749665927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04398377086561307</v>
+        <v>0.04493526352954493</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09463678485279765</v>
+        <v>0.09722427333152681</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>11742</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6709</v>
+        <v>6955</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19157</v>
+        <v>18984</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09103228568139017</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05200974364557937</v>
+        <v>0.05391961967412506</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1485117661150529</v>
+        <v>0.1471699688726216</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -836,19 +836,19 @@
         <v>19454</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11731</v>
+        <v>12920</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28605</v>
+        <v>29309</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07146717638666529</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04309385325399163</v>
+        <v>0.04746319004188772</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1050818885293134</v>
+        <v>0.1076695807287814</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -857,19 +857,19 @@
         <v>31197</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22576</v>
+        <v>21598</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42453</v>
+        <v>42935</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07775755183016581</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05627103927273674</v>
+        <v>0.05383302784459937</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1058140395062455</v>
+        <v>0.1070151418112201</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>112540</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>103997</v>
+        <v>104035</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>118524</v>
+        <v>118477</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8724622309690926</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8062317515079738</v>
+        <v>0.8065303781008285</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9188552125755803</v>
+        <v>0.9184925818234791</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>227</v>
@@ -907,19 +907,19 @@
         <v>230849</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>217813</v>
+        <v>216705</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>241621</v>
+        <v>241534</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8480492451551198</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8001579536220542</v>
+        <v>0.7960884197378515</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8876198087200947</v>
+        <v>0.8873014168167288</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>348</v>
@@ -928,19 +928,19 @@
         <v>343389</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>328793</v>
+        <v>328354</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>356665</v>
+        <v>355158</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8558982606731749</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8195174751325833</v>
+        <v>0.8184230866659141</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8889889804913524</v>
+        <v>0.885231497352955</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6246</v>
+        <v>5495</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01086753127649725</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0384226820058125</v>
+        <v>0.03380130607494561</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1053,19 +1053,19 @@
         <v>5901</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2075</v>
+        <v>2510</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12216</v>
+        <v>11985</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02898228347627502</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01019206925828297</v>
+        <v>0.01232726623076856</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06000169039034122</v>
+        <v>0.05886505927407382</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1074,19 +1074,19 @@
         <v>7667</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3794</v>
+        <v>3367</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14995</v>
+        <v>14868</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02094014407970278</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01036206028587491</v>
+        <v>0.009195352742223224</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04095336903954269</v>
+        <v>0.04060599002390437</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>12116</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7033</v>
+        <v>6570</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20173</v>
+        <v>19864</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07453770303056612</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04326540040297946</v>
+        <v>0.04041985676575117</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1240989595285525</v>
+        <v>0.1222011193668732</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -1124,19 +1124,19 @@
         <v>15876</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9047</v>
+        <v>9363</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24890</v>
+        <v>25302</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07797751569164042</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04443504167519578</v>
+        <v>0.04599026186357447</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1222493792578084</v>
+        <v>0.1242744238720028</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>28</v>
@@ -1145,19 +1145,19 @@
         <v>27993</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18546</v>
+        <v>19923</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>38937</v>
+        <v>39987</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07645039279129001</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05065009352199013</v>
+        <v>0.05441060663942785</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1063416062054812</v>
+        <v>0.109207255700041</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>148672</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140469</v>
+        <v>140816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154293</v>
+        <v>154383</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9145947656929366</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8641299639344205</v>
+        <v>0.8662688859827503</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9491712652966452</v>
+        <v>0.9497281871217802</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>179</v>
@@ -1195,19 +1195,19 @@
         <v>181820</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>171749</v>
+        <v>172000</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>189252</v>
+        <v>189996</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8930402008320846</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.843571975704797</v>
+        <v>0.844806378752922</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9295401353035831</v>
+        <v>0.9331977922487702</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>335</v>
@@ -1216,19 +1216,19 @@
         <v>330493</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>318844</v>
+        <v>317621</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>340807</v>
+        <v>340260</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9026094631290073</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8707935727204056</v>
+        <v>0.8674554646612761</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.930777654608025</v>
+        <v>0.9292836323242077</v>
       </c>
     </row>
     <row r="11">
@@ -1333,19 +1333,19 @@
         <v>3444</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>360</v>
+        <v>1063</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8166</v>
+        <v>9155</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02357870502043538</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0024612841842882</v>
+        <v>0.007275588370227842</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0559068672748822</v>
+        <v>0.06267941574893784</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1354,19 +1354,19 @@
         <v>3444</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10283</v>
+        <v>9399</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01183597765489319</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003667907599821144</v>
+        <v>0.003626114684978422</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03533722909655553</v>
+        <v>0.03230113458891936</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>4564</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1691</v>
+        <v>1786</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10029</v>
+        <v>11162</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03149237445627722</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01166807473962279</v>
+        <v>0.01232422067158462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06920674262753865</v>
+        <v>0.07702489697704847</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1404,19 +1404,19 @@
         <v>12059</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6470</v>
+        <v>6473</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20518</v>
+        <v>21523</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08255708593881673</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04429189331263728</v>
+        <v>0.04431822766219977</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1404694186617343</v>
+        <v>0.1473494177874431</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1425,19 +1425,19 @@
         <v>16623</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9667</v>
+        <v>9884</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25969</v>
+        <v>26296</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05712570688641189</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03322155014153166</v>
+        <v>0.03396587525498357</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08924569914717363</v>
+        <v>0.09037040865728309</v>
       </c>
     </row>
     <row r="14">
@@ -1454,19 +1454,19 @@
         <v>140352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134887</v>
+        <v>133754</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>143225</v>
+        <v>143130</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9685076255437228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9307932573724628</v>
+        <v>0.9229751030229525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9883319252603773</v>
+        <v>0.9876757793284154</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -1475,19 +1475,19 @@
         <v>130564</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>121610</v>
+        <v>119688</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137119</v>
+        <v>137216</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8938642090407479</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8325605601387133</v>
+        <v>0.8194051287415907</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9387402750676883</v>
+        <v>0.9394057943704854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>265</v>
@@ -1496,19 +1496,19 @@
         <v>270917</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>259874</v>
+        <v>260667</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>278752</v>
+        <v>278361</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.931038315458695</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8930858431700276</v>
+        <v>0.8958131276833594</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9579627137734849</v>
+        <v>0.9566191326697842</v>
       </c>
     </row>
     <row r="15">
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7156</v>
+        <v>6270</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03810908671824758</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1450309824854568</v>
+        <v>0.1270720252147772</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7458</v>
+        <v>7484</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06047669084633863</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1900805870256658</v>
+        <v>0.1907429771951098</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1689,19 +1689,19 @@
         <v>4253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1303</v>
+        <v>1035</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10185</v>
+        <v>9902</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04801679587955689</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01471593198734694</v>
+        <v>0.01168297598526419</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1149881040914983</v>
+        <v>0.1117917888459272</v>
       </c>
     </row>
     <row r="18">
@@ -1718,7 +1718,7 @@
         <v>47462</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42186</v>
+        <v>43072</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>49342</v>
@@ -1727,7 +1727,7 @@
         <v>0.9618909132817525</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8549690175145426</v>
+        <v>0.8729279747852222</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1739,7 +1739,7 @@
         <v>36862</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31777</v>
+        <v>31751</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>39235</v>
@@ -1748,7 +1748,7 @@
         <v>0.9395233091536613</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8099194129743343</v>
+        <v>0.8092570228048908</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1760,19 +1760,19 @@
         <v>84323</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>78391</v>
+        <v>78674</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>87273</v>
+        <v>87541</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9519832041204431</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8850118959085018</v>
+        <v>0.8882082111540722</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9852840680126531</v>
+        <v>0.9883170240147358</v>
       </c>
     </row>
     <row r="19">
@@ -1864,19 +1864,19 @@
         <v>6475</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2725</v>
+        <v>2805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12959</v>
+        <v>12953</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01332933196448868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005609956818182884</v>
+        <v>0.005774635258720765</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02667571090294993</v>
+        <v>0.02666234120797798</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -1885,19 +1885,19 @@
         <v>31253</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21518</v>
+        <v>21472</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43471</v>
+        <v>44443</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04727402730531875</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03254761841404186</v>
+        <v>0.03247820386758367</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06575478892374501</v>
+        <v>0.06722479004125095</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -1906,19 +1906,19 @@
         <v>37729</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27329</v>
+        <v>27042</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>51636</v>
+        <v>51360</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03289592410240899</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02382846807202883</v>
+        <v>0.02357789240701688</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04502196310164479</v>
+        <v>0.04478061764241735</v>
       </c>
     </row>
     <row r="21">
@@ -1935,19 +1935,19 @@
         <v>30303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21671</v>
+        <v>21178</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>41715</v>
+        <v>41972</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06237689122145229</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04460851039377053</v>
+        <v>0.04359281640980147</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08586878146582817</v>
+        <v>0.08639722317893458</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>46</v>
@@ -1956,19 +1956,19 @@
         <v>49762</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>37473</v>
+        <v>37319</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>64781</v>
+        <v>63839</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07527008999453853</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05668142782637774</v>
+        <v>0.05644875014024883</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09798819081246485</v>
+        <v>0.09656286781876998</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>79</v>
@@ -1977,19 +1977,19 @@
         <v>80065</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>64254</v>
+        <v>63990</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>99658</v>
+        <v>98418</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06980886134853914</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05602348828027959</v>
+        <v>0.0557933163494433</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08689176413793563</v>
+        <v>0.08581093112315304</v>
       </c>
     </row>
     <row r="22">
@@ -2006,19 +2006,19 @@
         <v>449026</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>436417</v>
+        <v>436084</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>458622</v>
+        <v>458440</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.924293776814059</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8983387346130117</v>
+        <v>0.8976532968726983</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9440472440851471</v>
+        <v>0.9436717796481572</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>569</v>
@@ -2027,19 +2027,19 @@
         <v>580097</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>562611</v>
+        <v>562161</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>596893</v>
+        <v>596396</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8774558827001427</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8510066957476966</v>
+        <v>0.8503265096632247</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9028626003864516</v>
+        <v>0.9021109586255086</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1035</v>
@@ -2048,19 +2048,19 @@
         <v>1029122</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1006910</v>
+        <v>1009353</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1048918</v>
+        <v>1048382</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8972952145490519</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8779283376436741</v>
+        <v>0.8800580762859915</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9145550380274096</v>
+        <v>0.9140878816418186</v>
       </c>
     </row>
     <row r="23">
@@ -2392,19 +2392,19 @@
         <v>7375</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3077</v>
+        <v>3118</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13952</v>
+        <v>13863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05362651193788259</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02237245198451885</v>
+        <v>0.02266850968561614</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1014464856242925</v>
+        <v>0.100796957385262</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2413,19 +2413,19 @@
         <v>22706</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14516</v>
+        <v>14591</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33224</v>
+        <v>33530</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1052986289999186</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06732002734967958</v>
+        <v>0.06766397981022219</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1540781441233125</v>
+        <v>0.1554944983256754</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2434,19 +2434,19 @@
         <v>30081</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20614</v>
+        <v>20425</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41733</v>
+        <v>41832</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08517606285310318</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05836898416472552</v>
+        <v>0.05783468787422489</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1181674874510115</v>
+        <v>0.118449241321788</v>
       </c>
     </row>
     <row r="5">
@@ -2463,19 +2463,19 @@
         <v>11683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6099</v>
+        <v>6362</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19348</v>
+        <v>19522</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08494433111097853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04434289474005573</v>
+        <v>0.04625454149267743</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.140677284146485</v>
+        <v>0.1419423395089185</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -2484,19 +2484,19 @@
         <v>28316</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19519</v>
+        <v>18953</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39067</v>
+        <v>39540</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1313142711562542</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09051739882991022</v>
+        <v>0.08789290802466911</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1811748151505881</v>
+        <v>0.1833649324868791</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -2505,19 +2505,19 @@
         <v>39998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28435</v>
+        <v>29293</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>53288</v>
+        <v>53255</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1132565208870965</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08051540167878651</v>
+        <v>0.08294396296072042</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1508865788064483</v>
+        <v>0.1507917303187223</v>
       </c>
     </row>
     <row r="6">
@@ -2534,19 +2534,19 @@
         <v>118475</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>109697</v>
+        <v>109433</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>126182</v>
+        <v>126068</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8614291569511389</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7976035393355783</v>
+        <v>0.7956875365701388</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9174656085408215</v>
+        <v>0.9166414874156882</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>154</v>
@@ -2555,19 +2555,19 @@
         <v>164612</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>151830</v>
+        <v>150140</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>177301</v>
+        <v>176123</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7633870998438272</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.704109340072398</v>
+        <v>0.6962720185712195</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8222299398608136</v>
+        <v>0.8167694956166256</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>259</v>
@@ -2576,19 +2576,19 @@
         <v>283087</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>265600</v>
+        <v>267469</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>298217</v>
+        <v>296863</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8015674162598003</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7520520374159753</v>
+        <v>0.7573441490501456</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8444076266168954</v>
+        <v>0.8405725909626284</v>
       </c>
     </row>
     <row r="7">
@@ -2680,19 +2680,19 @@
         <v>4223</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>961</v>
+        <v>976</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13406</v>
+        <v>12888</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02448818501223115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005572225818719488</v>
+        <v>0.005657551411907456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07772684347421767</v>
+        <v>0.07472863188641019</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -2701,19 +2701,19 @@
         <v>25435</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16669</v>
+        <v>17235</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37329</v>
+        <v>36796</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1029480120924844</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0674672277850199</v>
+        <v>0.06976030556108283</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1510890723222638</v>
+        <v>0.1489294049369461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -2722,19 +2722,19 @@
         <v>29658</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19540</v>
+        <v>20685</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42775</v>
+        <v>42773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07069350136631118</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04657442837662976</v>
+        <v>0.04930418396256179</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1019581960178282</v>
+        <v>0.1019537519809153</v>
       </c>
     </row>
     <row r="9">
@@ -2751,19 +2751,19 @@
         <v>11788</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6377</v>
+        <v>5458</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21261</v>
+        <v>20802</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06835015099016399</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03697430538721395</v>
+        <v>0.03164725278900381</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1232714082602021</v>
+        <v>0.1206123049096629</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -2772,19 +2772,19 @@
         <v>27270</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17842</v>
+        <v>18601</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38448</v>
+        <v>38869</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1103741095057213</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07221630209395913</v>
+        <v>0.07528839565543718</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1556195347568732</v>
+        <v>0.157320683165789</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -2793,19 +2793,19 @@
         <v>39058</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28693</v>
+        <v>28538</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>52205</v>
+        <v>51874</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09309823379789116</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06839194980174206</v>
+        <v>0.06802380216206223</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1244351170489734</v>
+        <v>0.1236458046211116</v>
       </c>
     </row>
     <row r="10">
@@ -2822,19 +2822,19 @@
         <v>156458</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>146595</v>
+        <v>146114</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163609</v>
+        <v>163902</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9071616639976049</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8499739721898349</v>
+        <v>0.8471874946344552</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9486237246982806</v>
+        <v>0.9503201208067159</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>187</v>
@@ -2843,19 +2843,19 @@
         <v>194362</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>180968</v>
+        <v>178100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>206674</v>
+        <v>206136</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7866778784017944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7324649454959181</v>
+        <v>0.7208550845900643</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8365109115446725</v>
+        <v>0.8343313228803396</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>331</v>
@@ -2864,19 +2864,19 @@
         <v>350819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>333838</v>
+        <v>333696</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>364993</v>
+        <v>365032</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8362082648357977</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7957305853901746</v>
+        <v>0.7953931214380299</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8699911848719019</v>
+        <v>0.8700852902394777</v>
       </c>
     </row>
     <row r="11">
@@ -2968,19 +2968,19 @@
         <v>9437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3999</v>
+        <v>4276</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17875</v>
+        <v>19671</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05677112903796347</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02405539744711121</v>
+        <v>0.02572466099287958</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1075301737971355</v>
+        <v>0.1183310626562522</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -2989,19 +2989,19 @@
         <v>16026</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8747</v>
+        <v>8806</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25740</v>
+        <v>25301</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0834361355111012</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04553816556620859</v>
+        <v>0.04584507847882695</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1340142497445077</v>
+        <v>0.1317272747017158</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>22</v>
@@ -3010,19 +3010,19 @@
         <v>25463</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15925</v>
+        <v>15871</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38088</v>
+        <v>36712</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07106498437720259</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04444517619003919</v>
+        <v>0.04429469755179643</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1063003171398145</v>
+        <v>0.1024594868418186</v>
       </c>
     </row>
     <row r="13">
@@ -3039,19 +3039,19 @@
         <v>6089</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1998</v>
+        <v>2069</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12348</v>
+        <v>12264</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03662931773981384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01201638271578224</v>
+        <v>0.01244878837469711</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07428317035287657</v>
+        <v>0.07377246522018267</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -3060,19 +3060,19 @@
         <v>10727</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5350</v>
+        <v>5111</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19903</v>
+        <v>19239</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05584791656204015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02785421113785987</v>
+        <v>0.02661027956516097</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1036237388254679</v>
+        <v>0.1001677238759597</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -3081,19 +3081,19 @@
         <v>16816</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9780</v>
+        <v>9687</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26837</v>
+        <v>26390</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04693150430273533</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02729551829761545</v>
+        <v>0.02703517825160036</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07489878644486102</v>
+        <v>0.07365134626800197</v>
       </c>
     </row>
     <row r="14">
@@ -3110,19 +3110,19 @@
         <v>150709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>140855</v>
+        <v>140848</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>157651</v>
+        <v>157545</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9065995532222227</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.847326190422848</v>
+        <v>0.847280062873876</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9483618494464516</v>
+        <v>0.9477236201236813</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>156</v>
@@ -3131,19 +3131,19 @@
         <v>165319</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>153813</v>
+        <v>153563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174617</v>
+        <v>174426</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8607159479268587</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.800813274244687</v>
+        <v>0.7995122778379432</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9091253215395554</v>
+        <v>0.9081333182717949</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>293</v>
@@ -3152,19 +3152,19 @@
         <v>316027</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>301630</v>
+        <v>301611</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>327800</v>
+        <v>327900</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8820035113200621</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8418212062716108</v>
+        <v>0.8417699990697313</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9148601067056956</v>
+        <v>0.9151403525547035</v>
       </c>
     </row>
     <row r="15">
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6431</v>
+        <v>6871</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02730992244224571</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08234843838508628</v>
+        <v>0.08797991528256284</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3277,19 +3277,19 @@
         <v>4479</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1113</v>
+        <v>1124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10185</v>
+        <v>10484</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05265830241067369</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01308122104415759</v>
+        <v>0.01321739605355815</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1197510596198203</v>
+        <v>0.1232691002848615</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3298,19 +3298,19 @@
         <v>6611</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2292</v>
+        <v>3122</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14012</v>
+        <v>12503</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04052428900084717</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01405166008527381</v>
+        <v>0.01913493232359915</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08588621385988772</v>
+        <v>0.07663827939589626</v>
       </c>
     </row>
     <row r="17">
@@ -3327,19 +3327,19 @@
         <v>6238</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2117</v>
+        <v>2042</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14000</v>
+        <v>13781</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07987378395699553</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02710486324989538</v>
+        <v>0.02614726163497535</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1792689003463022</v>
+        <v>0.1764629426411693</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -3348,19 +3348,19 @@
         <v>6471</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2241</v>
+        <v>2275</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13700</v>
+        <v>13005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07608245785751891</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02634482351940672</v>
+        <v>0.02674936694958882</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.161083846971546</v>
+        <v>0.1529129777443843</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -3369,19 +3369,19 @@
         <v>12709</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6502</v>
+        <v>6749</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22378</v>
+        <v>21973</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07789732735960835</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03985305652410619</v>
+        <v>0.04137000423778553</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1371670615755116</v>
+        <v>0.1346814771501847</v>
       </c>
     </row>
     <row r="18">
@@ -3398,19 +3398,19 @@
         <v>69726</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61920</v>
+        <v>61629</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74891</v>
+        <v>74136</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8928162936007588</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7928627254490533</v>
+        <v>0.7891397598994117</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9589497880210822</v>
+        <v>0.9492799312129587</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>65</v>
@@ -3419,19 +3419,19 @@
         <v>74101</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>66273</v>
+        <v>66175</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>79465</v>
+        <v>79400</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8712592397318074</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7792292376216513</v>
+        <v>0.7780687672514438</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9343309611737201</v>
+        <v>0.9335739346945784</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>126</v>
@@ -3440,19 +3440,19 @@
         <v>143826</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>133393</v>
+        <v>134175</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>151199</v>
+        <v>151528</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8815783836395444</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8176301245237559</v>
+        <v>0.8224252765575709</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9267737994488239</v>
+        <v>0.9287889555927737</v>
       </c>
     </row>
     <row r="19">
@@ -3544,19 +3544,19 @@
         <v>23169</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14346</v>
+        <v>14525</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34638</v>
+        <v>34840</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0417961617060342</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0258803013040844</v>
+        <v>0.02620190178176145</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06248625988147367</v>
+        <v>0.06285084002147608</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -3565,19 +3565,19 @@
         <v>68645</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>54139</v>
+        <v>53598</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87925</v>
+        <v>85073</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09278619764630586</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07317797018028936</v>
+        <v>0.07244767416775089</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.118846401328574</v>
+        <v>0.1149906798944577</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>82</v>
@@ -3586,19 +3586,19 @@
         <v>91814</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>72250</v>
+        <v>73927</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>112381</v>
+        <v>113179</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07094529765563369</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05582794995477135</v>
+        <v>0.05712355585061377</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08683748807662965</v>
+        <v>0.08745412665435565</v>
       </c>
     </row>
     <row r="21">
@@ -3615,19 +3615,19 @@
         <v>35798</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24992</v>
+        <v>23233</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>49365</v>
+        <v>47622</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06457822754749903</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04508455167206731</v>
+        <v>0.04191164528504662</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08905269759494869</v>
+        <v>0.08590916408691701</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>67</v>
@@ -3636,19 +3636,19 @@
         <v>72783</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>56735</v>
+        <v>55490</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>90768</v>
+        <v>89446</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09837933460547031</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07668795899090858</v>
+        <v>0.07500429796240007</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1226896871967147</v>
+        <v>0.1209028088158942</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>99</v>
@@ -3657,19 +3657,19 @@
         <v>108581</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>87870</v>
+        <v>87198</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>130519</v>
+        <v>131175</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08390108242906637</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06789770452372795</v>
+        <v>0.06737845739598447</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1008526844467024</v>
+        <v>0.1013594877407145</v>
       </c>
     </row>
     <row r="22">
@@ -3686,19 +3686,19 @@
         <v>495367</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>477170</v>
+        <v>480273</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>510041</v>
+        <v>510144</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8936256107464667</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8607992485225515</v>
+        <v>0.8663965058851412</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9200968210364168</v>
+        <v>0.9202826085182599</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>562</v>
@@ -3707,19 +3707,19 @@
         <v>598393</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>573991</v>
+        <v>576586</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>618665</v>
+        <v>619801</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8088344677482239</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7758511377435022</v>
+        <v>0.77935938044408</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8362362053288347</v>
+        <v>0.8377710820463475</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1009</v>
@@ -3728,19 +3728,19 @@
         <v>1093760</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1066071</v>
+        <v>1063800</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1122488</v>
+        <v>1116551</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8451536199152999</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8237583789248756</v>
+        <v>0.8220032926283192</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8673520787598632</v>
+        <v>0.8627648885081518</v>
       </c>
     </row>
     <row r="23">
@@ -4072,19 +4072,19 @@
         <v>5002</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2414</v>
+        <v>1760</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10373</v>
+        <v>9968</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03004751374404735</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01450176667536033</v>
+        <v>0.010570783035844</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06231812337038367</v>
+        <v>0.05988348772173784</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -4093,19 +4093,19 @@
         <v>16871</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9289</v>
+        <v>9649</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26992</v>
+        <v>28528</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06479596396850046</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03567513199497672</v>
+        <v>0.03705896189981189</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1036662686870896</v>
+        <v>0.1095622295869876</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -4114,19 +4114,19 @@
         <v>21873</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13182</v>
+        <v>13051</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33080</v>
+        <v>32063</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05124489549305485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03088225278608579</v>
+        <v>0.03057545065574084</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07750184442941441</v>
+        <v>0.07511963074702221</v>
       </c>
     </row>
     <row r="5">
@@ -4143,19 +4143,19 @@
         <v>14210</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8875</v>
+        <v>8442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21608</v>
+        <v>22329</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08536922956693223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05331807099892948</v>
+        <v>0.05071829558644601</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1298115263887634</v>
+        <v>0.1341479065784916</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -4164,19 +4164,19 @@
         <v>44442</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31131</v>
+        <v>32697</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59196</v>
+        <v>58922</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1706824583310046</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.11956014518648</v>
+        <v>0.1255752703269628</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2273468361940132</v>
+        <v>0.2262956261505436</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -4185,19 +4185,19 @@
         <v>58652</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45018</v>
+        <v>44368</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76326</v>
+        <v>75038</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1374123298108629</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1054689010141057</v>
+        <v>0.1039469470167978</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1788191863121298</v>
+        <v>0.1758018857761177</v>
       </c>
     </row>
     <row r="6">
@@ -4214,19 +4214,19 @@
         <v>147242</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>138748</v>
+        <v>137691</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>153510</v>
+        <v>153489</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8845832566890204</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8335518189821118</v>
+        <v>0.8272012109566</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9222367345380243</v>
+        <v>0.9221087826062651</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -4235,19 +4235,19 @@
         <v>199065</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>183899</v>
+        <v>183151</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>213890</v>
+        <v>212994</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.764521577700495</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7062771462373494</v>
+        <v>0.7034028104222938</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8214589005514544</v>
+        <v>0.8180170367432256</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>327</v>
@@ -4256,19 +4256,19 @@
         <v>346307</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>328143</v>
+        <v>329371</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>362843</v>
+        <v>362653</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8113427746960822</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7687866920314227</v>
+        <v>0.7716643587536934</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8500847258792175</v>
+        <v>0.8496386916723486</v>
       </c>
     </row>
     <row r="7">
@@ -4360,19 +4360,19 @@
         <v>6208</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2487</v>
+        <v>1892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12856</v>
+        <v>12693</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03656668857478749</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01465230762804199</v>
+        <v>0.01114285502270907</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07573026556003305</v>
+        <v>0.07476622642000594</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -4381,19 +4381,19 @@
         <v>8311</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3418</v>
+        <v>3424</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16753</v>
+        <v>18078</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03763806889290133</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01547969986737587</v>
+        <v>0.01550693366068879</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07587315244779724</v>
+        <v>0.08187425960538612</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -4402,19 +4402,19 @@
         <v>14518</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7612</v>
+        <v>7726</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25136</v>
+        <v>25115</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03717238566380859</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01949013044573352</v>
+        <v>0.0197815918327535</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06435847974736085</v>
+        <v>0.06430462783208794</v>
       </c>
     </row>
     <row r="9">
@@ -4431,19 +4431,19 @@
         <v>8805</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4437</v>
+        <v>4549</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15093</v>
+        <v>16113</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05186457433234599</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02613905627570521</v>
+        <v>0.02679368445955721</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08890556904219779</v>
+        <v>0.0949149490495351</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -4452,19 +4452,19 @@
         <v>24993</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16197</v>
+        <v>16568</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36860</v>
+        <v>36681</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1131892809887963</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07335652555602543</v>
+        <v>0.07503326056018947</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1669347635487707</v>
+        <v>0.1661253765870317</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>31</v>
@@ -4473,19 +4473,19 @@
         <v>33797</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>24597</v>
+        <v>23481</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48621</v>
+        <v>45992</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08653405227485413</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06297819967023767</v>
+        <v>0.06012100686464648</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1244888828947212</v>
+        <v>0.1177567290534157</v>
       </c>
     </row>
     <row r="10">
@@ -4502,19 +4502,19 @@
         <v>154751</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>146736</v>
+        <v>147317</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160696</v>
+        <v>161055</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9115687370928666</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8643580396549811</v>
+        <v>0.8677802279944573</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9465914295402094</v>
+        <v>0.9487033978384426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>161</v>
@@ -4523,19 +4523,19 @@
         <v>187502</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>175483</v>
+        <v>174706</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>198153</v>
+        <v>197780</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8491726501183025</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7947427691023641</v>
+        <v>0.7912248089629959</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8974095789931752</v>
+        <v>0.8957227402538706</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>328</v>
@@ -4544,19 +4544,19 @@
         <v>342252</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>326979</v>
+        <v>326763</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>354665</v>
+        <v>354466</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8762935620613372</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8371873034505279</v>
+        <v>0.8366352056387182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9080755766406738</v>
+        <v>0.9075657154130239</v>
       </c>
     </row>
     <row r="11">
@@ -4648,19 +4648,19 @@
         <v>4929</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1846</v>
+        <v>1780</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10590</v>
+        <v>11091</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03164227681613146</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01184877382969746</v>
+        <v>0.01142572843320709</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0679814527358238</v>
+        <v>0.07120068978432711</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -4669,19 +4669,19 @@
         <v>12691</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6027</v>
+        <v>6731</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22502</v>
+        <v>22733</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06893057999295743</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03273798652867017</v>
+        <v>0.03656151621590115</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1222216447028737</v>
+        <v>0.1234766896321012</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -4690,19 +4690,19 @@
         <v>17619</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10043</v>
+        <v>9898</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27575</v>
+        <v>28646</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05184074227320182</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02954874590472377</v>
+        <v>0.02912179258590046</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08113369694693523</v>
+        <v>0.08428285891338741</v>
       </c>
     </row>
     <row r="13">
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6118</v>
+        <v>6367</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01264834126940002</v>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03927824633419294</v>
+        <v>0.04087480981721021</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -4740,19 +4740,19 @@
         <v>12191</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6033</v>
+        <v>6287</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20832</v>
+        <v>21474</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06621765107105515</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03277024161599257</v>
+        <v>0.03415099554800828</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1131520440801324</v>
+        <v>0.116637682042247</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -4761,19 +4761,19 @@
         <v>14161</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7141</v>
+        <v>7815</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23518</v>
+        <v>23868</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04166596238390241</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02101114594600944</v>
+        <v>0.02299238975708526</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06919705936363076</v>
+        <v>0.0702244489339232</v>
       </c>
     </row>
     <row r="14">
@@ -4790,19 +4790,19 @@
         <v>148872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>141875</v>
+        <v>141327</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>152364</v>
+        <v>152910</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9557093819144685</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9107892883860611</v>
+        <v>0.9072766342086254</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9781285458500661</v>
+        <v>0.9816301168014709</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>133</v>
@@ -4811,19 +4811,19 @@
         <v>159224</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>147110</v>
+        <v>147080</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168572</v>
+        <v>167901</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8648517689359874</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7990488485758395</v>
+        <v>0.7988873238212496</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9156228759043052</v>
+        <v>0.9119817908852206</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>291</v>
@@ -4832,19 +4832,19 @@
         <v>308096</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>294284</v>
+        <v>295540</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>317953</v>
+        <v>318064</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9064932953428958</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8658552192445116</v>
+        <v>0.8695506976952292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9354937958135106</v>
+        <v>0.9358220808957487</v>
       </c>
     </row>
     <row r="15">
@@ -4936,19 +4936,19 @@
         <v>2617</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7148</v>
+        <v>6955</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02975590725134183</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009291846773783002</v>
+        <v>0.009018430773812848</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08128346373690913</v>
+        <v>0.07908683048940712</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7429</v>
+        <v>8487</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02274884726055975</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06973234360539554</v>
+        <v>0.07965968922930997</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -4978,19 +4978,19 @@
         <v>5040</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10964</v>
+        <v>11236</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0259174678236112</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009087299076773098</v>
+        <v>0.009046155158314516</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05637386682771432</v>
+        <v>0.05777395840627431</v>
       </c>
     </row>
     <row r="17">
@@ -5007,19 +5007,19 @@
         <v>2626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7226</v>
+        <v>7070</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02986103014818789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008401823636415791</v>
+        <v>0.008340959187647936</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08216149123156594</v>
+        <v>0.08039050327780897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -5028,19 +5028,19 @@
         <v>6288</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2489</v>
+        <v>2303</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14387</v>
+        <v>12864</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05901790950968833</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02336101053544745</v>
+        <v>0.0216144198279589</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1350466572253366</v>
+        <v>0.1207435717022824</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -5049,19 +5049,19 @@
         <v>8914</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4134</v>
+        <v>4359</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16528</v>
+        <v>16578</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0458330520058568</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02125885171124535</v>
+        <v>0.02241265241550143</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08498566389664673</v>
+        <v>0.08524035281724322</v>
       </c>
     </row>
     <row r="18">
@@ -5078,19 +5078,19 @@
         <v>82702</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76732</v>
+        <v>77668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>85534</v>
+        <v>85970</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9403830626004702</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8724981119336939</v>
+        <v>0.8831451385719976</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9725816027488837</v>
+        <v>0.9775393059520091</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>81</v>
@@ -5099,19 +5099,19 @@
         <v>97825</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>89262</v>
+        <v>90390</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>102603</v>
+        <v>102867</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.918233243229752</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8378548463895611</v>
+        <v>0.8484486398235415</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9630820270269734</v>
+        <v>0.9655631547228143</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>167</v>
@@ -5120,19 +5120,19 @@
         <v>180527</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>171192</v>
+        <v>171875</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>187038</v>
+        <v>186824</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.928249480170532</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8802527278947049</v>
+        <v>0.8837632991851806</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9617308668427219</v>
+        <v>0.960631074981441</v>
       </c>
     </row>
     <row r="19">
@@ -5224,19 +5224,19 @@
         <v>18755</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12150</v>
+        <v>11438</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29359</v>
+        <v>27783</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03233999724100648</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02095051095278897</v>
+        <v>0.01972225155293923</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05062523236688163</v>
+        <v>0.04790775190722347</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -5245,19 +5245,19 @@
         <v>40296</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27925</v>
+        <v>27451</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55957</v>
+        <v>56841</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05220900676128044</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03618020852153996</v>
+        <v>0.0355662279476665</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07249943743443103</v>
+        <v>0.07364443917978662</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>51</v>
@@ -5266,19 +5266,19 @@
         <v>59051</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>45420</v>
+        <v>45876</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>76536</v>
+        <v>79373</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04368476606782559</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03360047494252857</v>
+        <v>0.03393786487828194</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05661959675378345</v>
+        <v>0.05871817040517337</v>
       </c>
     </row>
     <row r="21">
@@ -5295,19 +5295,19 @@
         <v>27611</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19319</v>
+        <v>18834</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38611</v>
+        <v>38194</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04761085265681984</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03331158866387006</v>
+        <v>0.03247616502136942</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06657876593532283</v>
+        <v>0.0658593227741212</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>71</v>
@@ -5316,19 +5316,19 @@
         <v>87913</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>70536</v>
+        <v>69791</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>110552</v>
+        <v>107807</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1139031362708468</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09138935560630466</v>
+        <v>0.09042376608693686</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1432346304266106</v>
+        <v>0.1396776829062774</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>102</v>
@@ -5337,19 +5337,19 @@
         <v>115524</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>94475</v>
+        <v>95444</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>139840</v>
+        <v>139079</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08546229320475784</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06989069507835552</v>
+        <v>0.07060743746893314</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1034506248822829</v>
+        <v>0.1028874632306375</v>
       </c>
     </row>
     <row r="22">
@@ -5366,19 +5366,19 @@
         <v>533568</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>518584</v>
+        <v>520044</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>544471</v>
+        <v>545729</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9200491501021737</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8942112763013121</v>
+        <v>0.8967291222949507</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9388502309327532</v>
+        <v>0.9410189216287773</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>548</v>
@@ -5387,19 +5387,19 @@
         <v>643615</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>618051</v>
+        <v>620430</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>665416</v>
+        <v>664772</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8338878569678728</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8007666155195189</v>
+        <v>0.8038484808928196</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8621341079424653</v>
+        <v>0.8612996991359787</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1113</v>
@@ -5408,19 +5408,19 @@
         <v>1177182</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1148674</v>
+        <v>1148754</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1203042</v>
+        <v>1201703</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8708529407274166</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8497627269289476</v>
+        <v>0.8498225007403013</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8899829482562871</v>
+        <v>0.8889929110531659</v>
       </c>
     </row>
     <row r="23">
@@ -5752,19 +5752,19 @@
         <v>3244</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>916</v>
+        <v>950</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7810</v>
+        <v>7472</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04821409759038051</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01361015728521934</v>
+        <v>0.01411594267545351</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1160880953130252</v>
+        <v>0.1110625017209836</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -5773,19 +5773,19 @@
         <v>21081</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14934</v>
+        <v>15309</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28678</v>
+        <v>27899</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1480255740992829</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1048635939903124</v>
+        <v>0.1074919726506873</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2013681005922944</v>
+        <v>0.1958970221504198</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -5794,19 +5794,19 @@
         <v>24325</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17095</v>
+        <v>17090</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32585</v>
+        <v>32496</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1160025985931559</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08152158473861656</v>
+        <v>0.08150182045646798</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1553928036803048</v>
+        <v>0.1549695936089435</v>
       </c>
     </row>
     <row r="5">
@@ -5823,19 +5823,19 @@
         <v>11021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6748</v>
+        <v>6925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16735</v>
+        <v>17145</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1638102386768791</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1003091379619157</v>
+        <v>0.1029276976420369</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2487445706758616</v>
+        <v>0.2548451474579401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -5844,19 +5844,19 @@
         <v>31620</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24495</v>
+        <v>24821</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39122</v>
+        <v>38778</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2220257574838108</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1719946983444873</v>
+        <v>0.1742840922480653</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2747029892934603</v>
+        <v>0.2722865239671103</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -5865,19 +5865,19 @@
         <v>42641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34692</v>
+        <v>33702</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51250</v>
+        <v>52305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2033482045807178</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1654429524184888</v>
+        <v>0.1607192980301679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2444060077279109</v>
+        <v>0.2494325706573077</v>
       </c>
     </row>
     <row r="6">
@@ -5894,19 +5894,19 @@
         <v>53013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46973</v>
+        <v>46279</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57832</v>
+        <v>57580</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7879756637327404</v>
+        <v>0.7879756637327405</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6982073994090059</v>
+        <v>0.6878916149595758</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8596135566612206</v>
+        <v>0.8558691051257575</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>170</v>
@@ -5915,19 +5915,19 @@
         <v>89715</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>81382</v>
+        <v>81787</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>98211</v>
+        <v>98682</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6299486684169063</v>
+        <v>0.6299486684169062</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5714365071854415</v>
+        <v>0.574280362371374</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6896040632490718</v>
+        <v>0.6929053430938628</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>243</v>
@@ -5936,19 +5936,19 @@
         <v>142728</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>132315</v>
+        <v>131426</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>152541</v>
+        <v>152617</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6806491968261262</v>
+        <v>0.6806491968261263</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6309909069927455</v>
+        <v>0.626749521407284</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7274455727407112</v>
+        <v>0.7278104644338927</v>
       </c>
     </row>
     <row r="7">
@@ -6040,19 +6040,19 @@
         <v>9301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5609</v>
+        <v>5386</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15342</v>
+        <v>15441</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04620422623947065</v>
+        <v>0.04620422623947066</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02786248302456621</v>
+        <v>0.02675701275909714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07621508018489295</v>
+        <v>0.07670356515405795</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>58</v>
@@ -6061,19 +6061,19 @@
         <v>29428</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>22277</v>
+        <v>22488</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37621</v>
+        <v>37437</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09733497758390292</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07368431633143022</v>
+        <v>0.07438057208427905</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1244323414446529</v>
+        <v>0.1238247188113621</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>73</v>
@@ -6082,19 +6082,19 @@
         <v>38729</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30491</v>
+        <v>30144</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49790</v>
+        <v>49288</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.07689813131926763</v>
+        <v>0.07689813131926762</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06054077169437337</v>
+        <v>0.05985135044715428</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09885927800252055</v>
+        <v>0.09786343196278016</v>
       </c>
     </row>
     <row r="9">
@@ -6111,19 +6111,19 @@
         <v>19787</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13589</v>
+        <v>13396</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28089</v>
+        <v>27128</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09829642192576304</v>
+        <v>0.09829642192576306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06750310792742845</v>
+        <v>0.06654511065274288</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1395328877736168</v>
+        <v>0.1347618152795165</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>87</v>
@@ -6132,19 +6132,19 @@
         <v>45883</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>37835</v>
+        <v>37294</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>56265</v>
+        <v>56637</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1517613008486395</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1251412282423799</v>
+        <v>0.1233519924898579</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1861012263509497</v>
+        <v>0.1873316643205301</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>118</v>
@@ -6153,19 +6153,19 @@
         <v>65671</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>55540</v>
+        <v>53998</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>78284</v>
+        <v>77561</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1303915090428489</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1102778020013343</v>
+        <v>0.1072148880305913</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1554363104824377</v>
+        <v>0.1540006208875102</v>
       </c>
     </row>
     <row r="10">
@@ -6182,19 +6182,19 @@
         <v>172215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163898</v>
+        <v>163461</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>180057</v>
+        <v>179311</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8554993518347662</v>
+        <v>0.8554993518347663</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.814182379270205</v>
+        <v>0.8120105765114722</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8944536121935962</v>
+        <v>0.8907484296803106</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>423</v>
@@ -6203,19 +6203,19 @@
         <v>227026</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>215511</v>
+        <v>214313</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>237234</v>
+        <v>237297</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7509037215674577</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7128180933698185</v>
+        <v>0.708856115734809</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7846674569365566</v>
+        <v>0.7848768229508651</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>672</v>
@@ -6224,19 +6224,19 @@
         <v>399241</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>385138</v>
+        <v>385474</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>412065</v>
+        <v>414110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7927103596378835</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7647065297625194</v>
+        <v>0.7653743438714901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8181713446668061</v>
+        <v>0.8222320566349007</v>
       </c>
     </row>
     <row r="11">
@@ -6328,19 +6328,19 @@
         <v>4431</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1641</v>
+        <v>1755</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9729</v>
+        <v>10042</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01932393736796603</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00715648295852152</v>
+        <v>0.007654223661429231</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04242862668917845</v>
+        <v>0.04379120989874994</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -6349,19 +6349,19 @@
         <v>12755</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8427</v>
+        <v>8501</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18478</v>
+        <v>18647</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.05393149663155604</v>
+        <v>0.05393149663155605</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03562951821319441</v>
+        <v>0.03594180237186845</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07812811376657819</v>
+        <v>0.07884129246307882</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>32</v>
@@ -6370,19 +6370,19 @@
         <v>17187</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11587</v>
+        <v>11930</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24687</v>
+        <v>25038</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0368949636641643</v>
+        <v>0.03689496366416429</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02487393153272919</v>
+        <v>0.02561160964933727</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05299585545175927</v>
+        <v>0.05374914174147044</v>
       </c>
     </row>
     <row r="13">
@@ -6399,19 +6399,19 @@
         <v>9295</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5516</v>
+        <v>5539</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14830</v>
+        <v>14868</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04053405952498718</v>
+        <v>0.04053405952498719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02405382490032481</v>
+        <v>0.02415330444143432</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06467180556978866</v>
+        <v>0.06483656355726078</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -6420,19 +6420,19 @@
         <v>28027</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20774</v>
+        <v>20527</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36724</v>
+        <v>36371</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1185023845346324</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08783809198498034</v>
+        <v>0.08679359655632174</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1552763471492087</v>
+        <v>0.1537829834291663</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -6441,19 +6441,19 @@
         <v>37322</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29593</v>
+        <v>28882</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48024</v>
+        <v>46757</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08012030941277813</v>
+        <v>0.08012030941277812</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0635280224178242</v>
+        <v>0.0620011632890663</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1030946320741969</v>
+        <v>0.1003759907008283</v>
       </c>
     </row>
     <row r="14">
@@ -6470,19 +6470,19 @@
         <v>215588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>208839</v>
+        <v>208464</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>220726</v>
+        <v>220574</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9401420031070468</v>
+        <v>0.9401420031070469</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9107128225407225</v>
+        <v>0.9090750608145605</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9625485407540018</v>
+        <v>0.9618876935850429</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>376</v>
@@ -6491,19 +6491,19 @@
         <v>195727</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>185695</v>
+        <v>185920</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>204221</v>
+        <v>204234</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8275661188338116</v>
+        <v>0.8275661188338115</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7851480055582996</v>
+        <v>0.7861023317743886</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8634825775954313</v>
+        <v>0.8635361089951672</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>682</v>
@@ -6512,19 +6512,19 @@
         <v>411315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>399988</v>
+        <v>399831</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>420622</v>
+        <v>421213</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8829847269230576</v>
+        <v>0.8829847269230575</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8586693451719812</v>
+        <v>0.8583330930418607</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9029653857736624</v>
+        <v>0.9042348588330565</v>
       </c>
     </row>
     <row r="15">
@@ -6616,19 +6616,19 @@
         <v>5476</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2631</v>
+        <v>2792</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10252</v>
+        <v>10034</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02572628793172598</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01236188560265928</v>
+        <v>0.01311947267032122</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04816393997287267</v>
+        <v>0.04714405757304364</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -6637,19 +6637,19 @@
         <v>10416</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6080</v>
+        <v>6086</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17655</v>
+        <v>16420</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05009720917415653</v>
+        <v>0.05009720917415655</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02924233907200135</v>
+        <v>0.02927268241546522</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08491542773473865</v>
+        <v>0.07897659483210284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -6658,19 +6658,19 @@
         <v>15891</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10325</v>
+        <v>10265</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24125</v>
+        <v>24797</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03776877670106474</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02453864958500115</v>
+        <v>0.02439629891033685</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05733640782075972</v>
+        <v>0.05893422259846881</v>
       </c>
     </row>
     <row r="17">
@@ -6687,19 +6687,19 @@
         <v>7802</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3964</v>
+        <v>3663</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13573</v>
+        <v>14151</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03665570148704087</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01862263736285828</v>
+        <v>0.01721175693953822</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0637707459626172</v>
+        <v>0.06648336626038533</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -6708,19 +6708,19 @@
         <v>21180</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15809</v>
+        <v>15655</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28013</v>
+        <v>28998</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1018738046367274</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07604042964917039</v>
+        <v>0.07529738070565811</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1347348362773319</v>
+        <v>0.139473784205661</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>50</v>
@@ -6729,19 +6729,19 @@
         <v>28982</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22022</v>
+        <v>22581</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38548</v>
+        <v>38540</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06888215148148304</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05233986624740738</v>
+        <v>0.05366724420278528</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09161588502456589</v>
+        <v>0.0915977989459056</v>
       </c>
     </row>
     <row r="18">
@@ -6758,19 +6758,19 @@
         <v>199568</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>192507</v>
+        <v>192112</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>204801</v>
+        <v>204855</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9376180105812332</v>
+        <v>0.9376180105812333</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9044443494611234</v>
+        <v>0.9025872241875826</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9622045880874553</v>
+        <v>0.9624576459518276</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>339</v>
@@ -6779,19 +6779,19 @@
         <v>176313</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>167158</v>
+        <v>166769</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>182557</v>
+        <v>183315</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.848028986189116</v>
+        <v>0.8480289861891163</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8039946505978234</v>
+        <v>0.8021271407190602</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8780616713478432</v>
+        <v>0.8817073622183462</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>621</v>
@@ -6800,19 +6800,19 @@
         <v>375880</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>365035</v>
+        <v>364333</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>386258</v>
+        <v>385063</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8933490718174523</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8675744067940956</v>
+        <v>0.8659054397021254</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9180135480296406</v>
+        <v>0.9151746589071028</v>
       </c>
     </row>
     <row r="19">
@@ -6904,19 +6904,19 @@
         <v>22452</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15872</v>
+        <v>15800</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32246</v>
+        <v>31630</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03158925890756013</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0223314901222943</v>
+        <v>0.02223034302231541</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04536984039140412</v>
+        <v>0.04450226848255869</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>135</v>
@@ -6925,19 +6925,19 @@
         <v>73680</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>60980</v>
+        <v>62756</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>89054</v>
+        <v>87313</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08286389645342752</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06858089791426636</v>
+        <v>0.07057824760399624</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1001543235016076</v>
+        <v>0.09819626174030499</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>170</v>
@@ -6946,19 +6946,19 @@
         <v>96132</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>82108</v>
+        <v>81160</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>111844</v>
+        <v>112456</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06008577626606777</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05132049185853573</v>
+        <v>0.05072787923600307</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06990631164161526</v>
+        <v>0.07028895732544758</v>
       </c>
     </row>
     <row r="21">
@@ -6975,19 +6975,19 @@
         <v>47905</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38248</v>
+        <v>37584</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>60172</v>
+        <v>60054</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06740173557413924</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05381398718286286</v>
+        <v>0.05288029894695033</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08466089366065963</v>
+        <v>0.08449460252354558</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>234</v>
@@ -6996,19 +6996,19 @@
         <v>126711</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>111632</v>
+        <v>111745</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>144824</v>
+        <v>144905</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1425040885791597</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.125546146159165</v>
+        <v>0.1256735899100207</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1628747523839652</v>
+        <v>0.1629661796821805</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>309</v>
@@ -7017,19 +7017,19 @@
         <v>174616</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>157745</v>
+        <v>155713</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>194738</v>
+        <v>194155</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1091408020698872</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09859589269807539</v>
+        <v>0.0973258747489696</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1217180713376742</v>
+        <v>0.1213535770815888</v>
       </c>
     </row>
     <row r="22">
@@ -7046,19 +7046,19 @@
         <v>640384</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>625373</v>
+        <v>627163</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>652606</v>
+        <v>652754</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9010090055183007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8798886365288195</v>
+        <v>0.8824065638253941</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9182046805233043</v>
+        <v>0.9184133826932648</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1308</v>
@@ -7067,19 +7067,19 @@
         <v>688780</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>666972</v>
+        <v>670024</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>707199</v>
+        <v>708467</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7746320149674126</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7501055428183783</v>
+        <v>0.7535383487090849</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7953460043803564</v>
+        <v>0.7967722316149312</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2218</v>
@@ -7088,19 +7088,19 @@
         <v>1329164</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1305811</v>
+        <v>1306214</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1352489</v>
+        <v>1351803</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.830773421664045</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8161769824542776</v>
+        <v>0.8164288448589677</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8453520917666784</v>
+        <v>0.8449231551903016</v>
       </c>
     </row>
     <row r="23">
